--- a/data/E213 Data.xlsx
+++ b/data/E213 Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="117">
   <si>
     <t>EVENT</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>N-all,ee contains only s-channel</t>
+  </si>
+  <si>
+    <t>Correction factor</t>
   </si>
   <si>
     <t>sqrt(s)</t>
@@ -1640,7 +1643,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="1">
-        <v>24990.0</v>
+        <v>56720.0</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>39</v>
@@ -1672,19 +1675,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <f t="shared" ref="B2:B5" si="1">J1/H1</f>
-        <v>0.7537014806</v>
+        <f>J1*H9/H1</f>
+        <v>0.5256333128</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:C5" si="2">L1/H1</f>
+        <f>L1/H2</f>
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D5" si="3">N1/H1</f>
-        <v>0.001040416166</v>
+        <f>N1/H3</f>
+        <v>0.0003282248087</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E5" si="4">P1/H1</f>
+        <f>P1/H4</f>
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1723,19 +1726,19 @@
         <v>11</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" si="1"/>
+        <f>J2/H1</f>
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" si="2"/>
+        <f>L2/H2</f>
         <v>0.8478311658</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" si="3"/>
-        <v>0.0003893777743</v>
+        <f>N2/H3</f>
+        <v>0.0004418410887</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" si="4"/>
+        <f>P2/H4</f>
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1774,20 +1777,20 @@
         <v>12</v>
       </c>
       <c r="B4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.004771883758</v>
+        <f>J3/H1</f>
+        <v>0.006664315938</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" si="2"/>
-        <v>0.05182164769</v>
+        <f>L3/H2</f>
+        <v>0.04566845039</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="3"/>
+        <f>N3/H3</f>
         <v>0.8979599566</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="4"/>
-        <v>0.002183957381</v>
+        <f>P3/H4</f>
+        <v>0.001755222548</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>53</v>
@@ -1825,19 +1828,19 @@
         <v>13</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" si="1"/>
+        <f>J4/H1</f>
         <v>0</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="2"/>
+        <f>L4/H2</f>
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.003124904883</v>
+        <f>N4/H3</f>
+        <v>0.003888201581</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="4"/>
+        <f>P4/H4</f>
         <v>0.9425240709</v>
       </c>
     </row>
@@ -1852,6 +1855,14 @@
     <row r="7">
       <c r="G7" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.5829</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1889,7 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1895,28 +1906,28 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
         <v>106.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1">
         <v>120.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1">
         <v>251.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1">
         <v>3281.0</v>
@@ -1924,28 +1935,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
         <v>261.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1">
         <v>304.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1">
         <v>425.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="1">
         <v>7413.0</v>
@@ -1953,28 +1964,28 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1">
         <v>415.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1">
         <v>591.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1">
         <v>693.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1">
         <v>14709.0</v>
@@ -1982,28 +1993,28 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1">
         <v>4839.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
         <v>8681.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1">
         <v>10178.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="1">
         <v>221068.0</v>
@@ -2011,28 +2022,28 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1">
         <v>393.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1">
         <v>767.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1">
         <v>863.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="1">
         <v>18728.0</v>
@@ -2040,28 +2051,28 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1">
         <v>150.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
         <v>296.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" s="1">
         <v>427.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" s="1">
         <v>8100.0</v>
@@ -2069,28 +2080,28 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1">
         <v>178.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1">
         <v>339.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1">
         <v>459.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" s="1">
         <v>8635.0</v>
@@ -2117,33 +2128,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
         <v>69.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
         <v>51.0</v>
@@ -2151,16 +2162,16 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1">
         <v>156.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1">
         <v>148.0</v>
@@ -2168,16 +2179,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
         <v>319.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1">
         <v>272.0</v>
@@ -2185,16 +2196,16 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1">
         <v>4384.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1">
         <v>4297.0</v>
@@ -2202,16 +2213,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1">
         <v>380.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1">
         <v>387.0</v>
@@ -2219,16 +2230,16 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
         <v>123.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1">
         <v>173.0</v>
@@ -2236,16 +2247,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1">
         <v>150.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1">
         <v>189.0</v>
@@ -2256,13 +2267,13 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1">
         <v>40782.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1">
         <v>41231.0</v>
@@ -2272,7 +2283,7 @@
         <v>-0.005474741809</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H10" s="1">
         <v>94381.0</v>
@@ -2280,13 +2291,13 @@
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="1">
         <v>37807.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1">
         <v>38402.0</v>
@@ -2296,7 +2307,7 @@
         <v>-0.007807476807</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1">
         <v>76209.0</v>

--- a/data/E213 Data.xlsx
+++ b/data/E213 Data.xlsx
@@ -1,30 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunmoy Jena\Documents\E213Lab\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C5D8E4-180B-4539-A893-0ABBC7523343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="1896" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ee (pure)" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="mm (pure)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="tt (pure)" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="qq (pure)" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Ctrk(N)" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Ctrk(Sump)" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Ecal(SumE)" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Hcal(SumE)" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Cut Criterion" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="mixed1" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Final cuts" sheetId="11" r:id="rId14"/>
-    <sheet state="visible" name="Efficiency Matrix" sheetId="12" r:id="rId15"/>
-    <sheet state="visible" name="sqrt(s)" sheetId="13" r:id="rId16"/>
-    <sheet state="visible" name="Forward-Backward Asymmetry" sheetId="14" r:id="rId17"/>
+    <sheet name="ee (pure)" sheetId="1" r:id="rId1"/>
+    <sheet name="mm (pure)" sheetId="2" r:id="rId2"/>
+    <sheet name="tt (pure)" sheetId="3" r:id="rId3"/>
+    <sheet name="qq (pure)" sheetId="4" r:id="rId4"/>
+    <sheet name="Ctrk(N)" sheetId="5" r:id="rId5"/>
+    <sheet name="Ctrk(Sump)" sheetId="6" r:id="rId6"/>
+    <sheet name="Ecal(SumE)" sheetId="7" r:id="rId7"/>
+    <sheet name="Hcal(SumE)" sheetId="8" r:id="rId8"/>
+    <sheet name="Cut Criterion" sheetId="9" r:id="rId9"/>
+    <sheet name="mixed1" sheetId="10" r:id="rId10"/>
+    <sheet name="Final cuts" sheetId="11" r:id="rId11"/>
+    <sheet name="Efficiency Matrix" sheetId="12" r:id="rId12"/>
+    <sheet name="sqrt(s)" sheetId="13" r:id="rId13"/>
+    <sheet name="Forward-Backward Asymmetry" sheetId="14" r:id="rId14"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
   <si>
     <t>EVENT</t>
   </si>
@@ -131,9 +150,6 @@
     <t>[-0.9,0.5]</t>
   </si>
   <si>
-    <t>cos&lt;0.5</t>
-  </si>
-  <si>
     <t>[-0.9,0.9]</t>
   </si>
   <si>
@@ -375,25 +391,48 @@
   </si>
   <si>
     <t>Constraints</t>
+  </si>
+  <si>
+    <t>cos&lt;1</t>
+  </si>
+  <si>
+    <t>&gt;80</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>&lt;60</t>
+  </si>
+  <si>
+    <t>&lt;75</t>
+  </si>
+  <si>
+    <t>&gt;75</t>
+  </si>
+  <si>
+    <t>&gt;8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -403,7 +442,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -413,88 +452,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -684,20 +678,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,15 +714,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>50.9</v>
@@ -734,32 +731,32 @@
         <v>82.6</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>91.9</v>
       </c>
       <c r="E3" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>82.5</v>
@@ -768,32 +765,32 @@
         <v>92.3</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="E5" s="1">
         <v>86.8</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>38.1</v>
@@ -802,15 +799,15 @@
         <v>89.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>83.8</v>
@@ -819,15 +816,15 @@
         <v>87.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>87.4</v>
@@ -836,15 +833,15 @@
         <v>93.2</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>69.3</v>
@@ -853,15 +850,15 @@
         <v>90.7</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>86.1</v>
@@ -873,12 +870,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>90.3</v>
@@ -887,15 +884,15 @@
         <v>90.6</v>
       </c>
       <c r="F11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>92.1</v>
@@ -907,12 +904,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>81.7</v>
@@ -921,15 +918,15 @@
         <v>91.6</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>89.6</v>
@@ -938,15 +935,15 @@
         <v>92.5</v>
       </c>
       <c r="F14" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>61.1</v>
@@ -955,15 +952,15 @@
         <v>89.2</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>88.4</v>
@@ -972,15 +969,15 @@
         <v>89.1</v>
       </c>
       <c r="F16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <v>90.9</v>
@@ -992,29 +989,29 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="E18" s="1">
         <v>88.8</v>
       </c>
       <c r="F18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>95.6</v>
@@ -1023,32 +1020,32 @@
         <v>96.2</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E20" s="1">
         <v>90.8</v>
       </c>
       <c r="F20" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>94.1</v>
@@ -1057,25 +1054,26 @@
         <v>89.2</v>
       </c>
       <c r="F21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,15 +1093,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>39.5</v>
@@ -1118,12 +1116,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1">
         <v>42.8</v>
@@ -1138,12 +1136,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>95.7</v>
@@ -1152,18 +1150,18 @@
         <v>93.4</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>90.8</v>
@@ -1172,24 +1170,24 @@
         <v>1.4</v>
       </c>
       <c r="F5" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>36.5</v>
       </c>
       <c r="E6" s="1">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="F6" s="1">
         <v>10.8</v>
@@ -1198,18 +1196,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F7" s="1">
         <v>8.9</v>
@@ -1218,12 +1216,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>42.9</v>
@@ -1238,18 +1236,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F9" s="1">
         <v>3.3</v>
@@ -1258,12 +1256,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>75.8</v>
@@ -1272,18 +1270,18 @@
         <v>45.8</v>
       </c>
       <c r="F10" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>95.2</v>
@@ -1298,12 +1296,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>22.7</v>
@@ -1312,24 +1310,24 @@
         <v>34.4</v>
       </c>
       <c r="F12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="1">
         <v>44.3</v>
       </c>
       <c r="E13" s="1">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="F13" s="1">
         <v>2.6</v>
@@ -1338,18 +1336,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1">
         <v>53.1</v>
       </c>
       <c r="E14" s="1">
-        <v>36.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="F14" s="1">
         <v>22.9</v>
@@ -1358,32 +1356,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>89.5</v>
       </c>
       <c r="E15" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="F15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>89.1</v>
@@ -1392,38 +1390,38 @@
         <v>89.7</v>
       </c>
       <c r="F16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E17" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>87.8</v>
@@ -1438,32 +1436,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>75.3</v>
       </c>
       <c r="E19" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>93.7</v>
@@ -1478,42 +1476,45 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>67.1</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E21" s="1">
         <v>93.6</v>
       </c>
       <c r="F21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1545,7 +1546,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1554,10 +1555,10 @@
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1565,19 +1566,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1585,48 +1586,49 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="13.5"/>
-    <col customWidth="1" min="3" max="3" width="11.63"/>
-    <col customWidth="1" min="4" max="4" width="14.38"/>
-    <col customWidth="1" min="5" max="5" width="13.5"/>
-    <col customWidth="1" min="7" max="7" width="24.63"/>
-    <col customWidth="1" min="9" max="9" width="28.13"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1640,43 +1642,43 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1">
+        <v>56720</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1">
-        <v>56720.0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1">
+        <v>18835</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1">
-        <v>18835.0</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="P1" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3">
         <f>J1*H9/H1</f>
-        <v>0.5256333128</v>
+        <v>0.52563331276445702</v>
       </c>
       <c r="C2" s="3">
         <f>L1/H2</f>
@@ -1684,44 +1686,44 @@
       </c>
       <c r="D2" s="3">
         <f>N1/H3</f>
-        <v>0.0003282248087</v>
+        <v>3.2822480874592874E-4</v>
       </c>
       <c r="E2" s="3">
         <f>P1/H4</f>
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="1">
+        <v>89887</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="1">
-        <v>89887.0</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1">
+        <v>76209</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="1">
-        <v>76209.0</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1">
+        <v>35</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="1">
-        <v>35.0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="P2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1731,99 +1733,99 @@
       </c>
       <c r="C3" s="3">
         <f>L2/H2</f>
-        <v>0.8478311658</v>
+        <v>0.84783116579705631</v>
       </c>
       <c r="D3" s="3">
         <f>N2/H3</f>
-        <v>0.0004418410887</v>
+        <v>4.4184108869644255E-4</v>
       </c>
       <c r="E3" s="3">
         <f>P2/H4</f>
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1">
+        <v>79214</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="1">
-        <v>79214.0</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1">
+        <v>378</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="1">
-        <v>378.0</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1">
+        <v>4105</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="1">
-        <v>4105.0</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1">
+        <v>71131</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="1">
-        <v>71131.0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="P3" s="1">
-        <v>173.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3">
         <f>J3/H1</f>
-        <v>0.006664315938</v>
+        <v>6.664315937940762E-3</v>
       </c>
       <c r="C4" s="3">
         <f>L3/H2</f>
-        <v>0.04566845039</v>
+        <v>4.566845038770901E-2</v>
       </c>
       <c r="D4" s="3">
         <f>N3/H3</f>
-        <v>0.8979599566</v>
+        <v>0.89795995657333305</v>
       </c>
       <c r="E4" s="3">
         <f>P3/H4</f>
-        <v>0.001755222548</v>
+        <v>1.7552225480149753E-3</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1">
+        <v>98563</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="1">
-        <v>98563.0</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1">
+        <v>308</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="1">
-        <v>308.0</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="P4" s="1">
-        <v>92898.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>92898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1837,59 +1839,60 @@
       </c>
       <c r="D5" s="3">
         <f>N4/H3</f>
-        <v>0.003888201581</v>
+        <v>3.8882015805286945E-3</v>
       </c>
       <c r="E5" s="3">
         <f>P4/H4</f>
-        <v>0.9425240709</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.94252407089881596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7">
-      <c r="G7" s="1" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="H9" s="1">
         <v>1.5829</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="13.25"/>
-    <col customWidth="1" min="4" max="4" width="13.25"/>
-    <col customWidth="1" min="6" max="6" width="13.25"/>
-    <col customWidth="1" min="8" max="8" width="13.25"/>
+    <col min="1" max="2" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1904,431 +1907,433 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>106</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="1">
-        <v>106.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>120</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="1">
-        <v>120.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>251</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="1">
-        <v>251.0</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="1">
-        <v>3281.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>261</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="1">
-        <v>261.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>304</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1">
-        <v>304.0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1">
+        <v>425</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="1">
-        <v>425.0</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1">
+        <v>7413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="1">
-        <v>7413.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>415</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="1">
-        <v>415.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>591</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="1">
-        <v>591.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1">
+        <v>693</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="1">
-        <v>693.0</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1">
+        <v>14709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="1">
-        <v>14709.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>4839</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="1">
-        <v>4839.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>8681</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="1">
-        <v>8681.0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1">
+        <v>10178</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="1">
-        <v>10178.0</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1">
+        <v>221068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="1">
-        <v>221068.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>393</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="1">
-        <v>393.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>767</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="1">
-        <v>767.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1">
+        <v>863</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="1">
-        <v>863.0</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1">
+        <v>18728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I6" s="1">
-        <v>18728.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>150</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>296</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="1">
-        <v>296.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1">
+        <v>427</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G7" s="1">
-        <v>427.0</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="1">
-        <v>8100.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>178</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="1">
-        <v>178.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>339</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="1">
-        <v>339.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1">
+        <v>459</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="1">
-        <v>459.0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="I8" s="1">
-        <v>8635.0</v>
+        <v>8635</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
-    <col customWidth="1" min="4" max="4" width="13.25"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>69</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="1">
-        <v>69.0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="1">
-        <v>51.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="1">
-        <v>156.0</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="1">
-        <v>148.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>319</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="1">
-        <v>319.0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="1">
-        <v>272.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1">
+        <v>4384</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="1">
-        <v>4384.0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="1">
-        <v>4297.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>380</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="1">
-        <v>380.0</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="1">
-        <v>387.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="1">
-        <v>123.0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="1">
-        <v>173.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1">
+        <v>150</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E8" s="1">
-        <v>189.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="1">
+        <v>40782</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="1">
+        <v>41231</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" ref="F10:F11" si="0">(C10-E10)/(C10+E10)</f>
+        <v>-5.4747418092253664E-3</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="1">
-        <v>40782.0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="1">
-        <v>41231.0</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" ref="F10:F11" si="1">(C10-E10)/(C10+E10)</f>
-        <v>-0.005474741809</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>94381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="1">
+        <v>37807</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="1">
+        <v>38402</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.8074768072012492E-3</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="1">
-        <v>94381.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="1">
-        <v>37807.0</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="1">
-        <v>38402.0</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.007807476807</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H11" s="1">
-        <v>76209.0</v>
+        <v>76209</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2348,15 +2353,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
         <v>90.1</v>
@@ -2365,66 +2370,66 @@
         <v>1.6</v>
       </c>
       <c r="F2" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="E3" s="1">
         <v>1.6</v>
       </c>
       <c r="F3" s="1">
-        <v>8.7</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>96.8</v>
       </c>
       <c r="E4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>89.1</v>
       </c>
       <c r="E5" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F5" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>90.25</v>
@@ -2436,12 +2441,12 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>91.8</v>
@@ -2453,12 +2458,12 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>86.3</v>
@@ -2470,12 +2475,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>99.2</v>
@@ -2487,12 +2492,12 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>88.2</v>
@@ -2501,15 +2506,15 @@
         <v>1.6</v>
       </c>
       <c r="F10" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>90.9</v>
@@ -2521,12 +2526,12 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>95.6</v>
@@ -2538,12 +2543,12 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>75.3</v>
@@ -2555,12 +2560,12 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>85.2</v>
@@ -2569,15 +2574,15 @@
         <v>5.8</v>
       </c>
       <c r="F14" s="1">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <v>98.6</v>
@@ -2589,12 +2594,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>86.8</v>
@@ -2606,46 +2611,46 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1">
         <v>1.9</v>
       </c>
       <c r="F17" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>108.3</v>
       </c>
       <c r="E18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <v>92.4</v>
@@ -2657,15 +2662,15 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="E20" s="1">
         <v>1.9</v>
@@ -2674,12 +2679,12 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>92.6</v>
@@ -2692,21 +2697,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2726,32 +2732,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1">
         <v>51.1</v>
       </c>
       <c r="F2" s="1">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
         <v>46.5</v>
@@ -2760,15 +2766,15 @@
         <v>17.3</v>
       </c>
       <c r="F3" s="1">
-        <v>8.2</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>30.8</v>
@@ -2780,29 +2786,29 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>29.5</v>
       </c>
       <c r="E5" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F5" s="1">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>33.1</v>
@@ -2814,12 +2820,12 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
         <v>24.4</v>
@@ -2831,29 +2837,29 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F8" s="1">
         <v>5.7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>41.3</v>
@@ -2862,15 +2868,15 @@
         <v>11.1</v>
       </c>
       <c r="F9" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
         <v>49.7</v>
@@ -2882,12 +2888,12 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
         <v>33.4</v>
@@ -2899,12 +2905,12 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
         <v>14.1</v>
@@ -2916,12 +2922,12 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
         <v>19.7</v>
@@ -2933,12 +2939,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>26.8</v>
@@ -2950,29 +2956,29 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
         <v>23.4</v>
       </c>
       <c r="E15" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <v>23.8</v>
@@ -2984,29 +2990,29 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F17" s="1">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>24.1</v>
@@ -3018,12 +3024,12 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
         <v>38.5</v>
@@ -3032,32 +3038,32 @@
         <v>28.5</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="E20" s="1">
         <v>51.8</v>
       </c>
       <c r="F20" s="1">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <v>17.8</v>
@@ -3066,25 +3072,26 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3104,35 +3111,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="E2" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1">
         <v>14.1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>39.2</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="E3" s="1">
         <v>66.8</v>
@@ -3141,29 +3148,29 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="E4" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1">
         <v>45.3</v>
@@ -3175,12 +3182,12 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1">
         <v>59.9</v>
@@ -3192,12 +3199,12 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1">
         <v>21.9</v>
@@ -3206,15 +3213,15 @@
         <v>65.2</v>
       </c>
       <c r="F7" s="1">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>55.9</v>
@@ -3226,12 +3233,12 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1">
         <v>38.1</v>
@@ -3243,12 +3250,12 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
         <v>34.4</v>
@@ -3260,12 +3267,12 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C11" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>51.2</v>
@@ -3277,32 +3284,32 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>63.1</v>
       </c>
       <c r="E12" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="F12" s="1">
         <v>17.2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1">
         <v>60.6</v>
@@ -3311,12 +3318,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1">
         <v>62.2</v>
@@ -3325,15 +3332,15 @@
         <v>67.2</v>
       </c>
       <c r="F14" s="1">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>43.3</v>
@@ -3345,12 +3352,12 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1">
         <v>47.8</v>
@@ -3362,15 +3369,15 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1">
-        <v>67.9</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="E17" s="1">
         <v>52.1</v>
@@ -3379,29 +3386,29 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1">
         <v>52.1</v>
       </c>
       <c r="E18" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="F18" s="1">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="D19" s="1">
         <v>82.6</v>
@@ -3410,25 +3417,26 @@
         <v>53.8</v>
       </c>
       <c r="F19" s="1">
-        <v>16.4</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3445,356 +3453,357 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>41.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>22.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>36.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>29.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3808,7 +3817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3819,27 +3828,27 @@
         <v>90.1</v>
       </c>
       <c r="D2" s="1">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="E2" s="1">
-        <v>37.7</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>91.9</v>
       </c>
       <c r="C3" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="D3" s="1">
         <v>46.5</v>
       </c>
       <c r="E3" s="1">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>82.5</v>
       </c>
@@ -3850,12 +3859,12 @@
         <v>30.8</v>
       </c>
       <c r="E4" s="1">
-        <v>64.6</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="C5" s="1">
         <v>89.1</v>
@@ -3867,7 +3876,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>38.1</v>
       </c>
@@ -3881,7 +3890,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>83.8</v>
       </c>
@@ -3895,7 +3904,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>87.4</v>
       </c>
@@ -3903,13 +3912,13 @@
         <v>86.3</v>
       </c>
       <c r="D8" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>55.9</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>69.3</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>86.1</v>
       </c>
@@ -3937,7 +3946,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>90.3</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>92.1</v>
       </c>
@@ -3965,7 +3974,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>81.7</v>
       </c>
@@ -3976,10 +3985,10 @@
         <v>19.7</v>
       </c>
       <c r="E13" s="1">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>89.6</v>
       </c>
@@ -3993,7 +4002,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>61.1</v>
       </c>
@@ -4007,7 +4016,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>88.4</v>
       </c>
@@ -4021,23 +4030,23 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>90.9</v>
       </c>
       <c r="C17" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D17" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1">
-        <v>67.9</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>64.6</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="C18" s="1">
         <v>108.3</v>
@@ -4049,7 +4058,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>95.6</v>
       </c>
@@ -4063,18 +4072,18 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="C20" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1">
-        <v>35.3</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>94.1</v>
       </c>
@@ -4086,21 +4095,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4114,7 +4124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4128,12 +4138,12 @@
         <v>51.1</v>
       </c>
       <c r="E2" s="1">
-        <v>37.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1">
         <v>1.6</v>
@@ -4145,35 +4155,35 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>92.3</v>
       </c>
       <c r="C4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>1.6</v>
       </c>
       <c r="E4" s="1">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>86.8</v>
       </c>
       <c r="C5" s="1">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E5" s="1">
         <v>53.2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>89.5</v>
       </c>
@@ -4187,7 +4197,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>87.5</v>
       </c>
@@ -4201,7 +4211,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>93.2</v>
       </c>
@@ -4209,13 +4219,13 @@
         <v>3.7</v>
       </c>
       <c r="D8" s="1">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E8" s="1">
         <v>50.4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>90.7</v>
       </c>
@@ -4229,7 +4239,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>89.4</v>
       </c>
@@ -4243,7 +4253,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>90.6</v>
       </c>
@@ -4257,7 +4267,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>88.5</v>
       </c>
@@ -4268,10 +4278,10 @@
         <v>3.3</v>
       </c>
       <c r="E12" s="1">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>91.6</v>
       </c>
@@ -4285,7 +4295,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>92.5</v>
       </c>
@@ -4299,7 +4309,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>89.2</v>
       </c>
@@ -4307,13 +4317,13 @@
         <v>3.6</v>
       </c>
       <c r="D15" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1">
         <v>71.7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>89.1</v>
       </c>
@@ -4327,7 +4337,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>90.5</v>
       </c>
@@ -4335,27 +4345,27 @@
         <v>1.9</v>
       </c>
       <c r="D17" s="1">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="E17" s="1">
         <v>52.1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>88.8</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <v>46.5</v>
       </c>
       <c r="E18" s="1">
-        <v>61.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>96.2</v>
       </c>
@@ -4369,7 +4379,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>90.8</v>
       </c>
@@ -4380,7 +4390,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>89.2</v>
       </c>
@@ -4392,21 +4402,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4420,68 +4431,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="E2" s="1">
         <v>14.1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D3" s="1">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E3" s="1">
         <v>9.9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <v>6.3</v>
       </c>
       <c r="E4" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
         <v>8.5</v>
       </c>
       <c r="D5" s="1">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E5" s="1">
         <v>7.7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>7.2</v>
@@ -4493,9 +4504,9 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C7" s="1">
         <v>4.3</v>
@@ -4504,12 +4515,12 @@
         <v>11.7</v>
       </c>
       <c r="E7" s="1">
-        <v>8.8</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
         <v>3.3</v>
@@ -4521,26 +4532,26 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>2.9</v>
       </c>
       <c r="D9" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>0.5</v>
       </c>
       <c r="C10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>20.3</v>
@@ -4549,9 +4560,9 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C11" s="1">
         <v>6.7</v>
@@ -4563,7 +4574,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>0.5</v>
       </c>
@@ -4577,9 +4588,9 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>6.8</v>
@@ -4591,37 +4602,37 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D14" s="1">
         <v>3.4</v>
       </c>
       <c r="E14" s="1">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>5.7</v>
       </c>
       <c r="D15" s="1">
-        <v>17.1</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E15" s="1">
         <v>4.3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>7.9</v>
@@ -4633,23 +4644,23 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>0.3</v>
       </c>
       <c r="C17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E17" s="1">
         <v>10.6</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>8.5</v>
@@ -4658,61 +4669,62 @@
         <v>7.3</v>
       </c>
       <c r="E18" s="1">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>6.7</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>22.6</v>
       </c>
       <c r="D20" s="1">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>5.7</v>
       </c>
       <c r="D21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4729,7 +4741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4744,7 +4756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4758,7 +4770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4772,7 +4784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4783,7 +4795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4800,7 +4812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4817,7 +4829,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4834,7 +4846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4852,6 +4864,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/E213 Data.xlsx
+++ b/data/E213 Data.xlsx
@@ -1,49 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mrunmoy Jena\Documents\E213Lab\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C5D8E4-180B-4539-A893-0ABBC7523343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="1896" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="ee (pure)" sheetId="1" r:id="rId1"/>
-    <sheet name="mm (pure)" sheetId="2" r:id="rId2"/>
-    <sheet name="tt (pure)" sheetId="3" r:id="rId3"/>
-    <sheet name="qq (pure)" sheetId="4" r:id="rId4"/>
-    <sheet name="Ctrk(N)" sheetId="5" r:id="rId5"/>
-    <sheet name="Ctrk(Sump)" sheetId="6" r:id="rId6"/>
-    <sheet name="Ecal(SumE)" sheetId="7" r:id="rId7"/>
-    <sheet name="Hcal(SumE)" sheetId="8" r:id="rId8"/>
-    <sheet name="Cut Criterion" sheetId="9" r:id="rId9"/>
-    <sheet name="mixed1" sheetId="10" r:id="rId10"/>
-    <sheet name="Final cuts" sheetId="11" r:id="rId11"/>
-    <sheet name="Efficiency Matrix" sheetId="12" r:id="rId12"/>
-    <sheet name="sqrt(s)" sheetId="13" r:id="rId13"/>
-    <sheet name="Forward-Backward Asymmetry" sheetId="14" r:id="rId14"/>
+    <sheet state="visible" name="ee (pure)" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="mm (pure)" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="tt (pure)" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="qq (pure)" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Ctrk(N)" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Ctrk(Sump)" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Ecal(SumE)" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Hcal(SumE)" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Cut Criterion" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="mixed1" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Final cuts" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Efficiency Matrix" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="sqrt(s)" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="Forward-Backward Asymmetry" sheetId="14" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="117">
   <si>
     <t>EVENT</t>
   </si>
@@ -150,6 +131,9 @@
     <t>[-0.9,0.5]</t>
   </si>
   <si>
+    <t>cos&lt;0.5</t>
+  </si>
+  <si>
     <t>[-0.9,0.9]</t>
   </si>
   <si>
@@ -391,48 +375,25 @@
   </si>
   <si>
     <t>Constraints</t>
-  </si>
-  <si>
-    <t>cos&lt;1</t>
-  </si>
-  <si>
-    <t>&gt;80</t>
-  </si>
-  <si>
-    <t>&lt;10</t>
-  </si>
-  <si>
-    <t>&lt;60</t>
-  </si>
-  <si>
-    <t>&lt;75</t>
-  </si>
-  <si>
-    <t>&gt;75</t>
-  </si>
-  <si>
-    <t>&gt;8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="3">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -442,7 +403,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -452,43 +413,88 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -678,23 +684,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,15 +717,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D2" s="1">
         <v>50.9</v>
@@ -731,32 +734,32 @@
         <v>82.6</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D3" s="1">
         <v>91.9</v>
       </c>
       <c r="E3" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D4" s="1">
         <v>82.5</v>
@@ -765,32 +768,32 @@
         <v>92.3</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="1">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="E5" s="1">
         <v>86.8</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D6" s="1">
         <v>38.1</v>
@@ -799,15 +802,15 @@
         <v>89.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="1">
         <v>83.8</v>
@@ -816,15 +819,15 @@
         <v>87.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D8" s="1">
         <v>87.4</v>
@@ -833,15 +836,15 @@
         <v>93.2</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="1">
         <v>69.3</v>
@@ -850,15 +853,15 @@
         <v>90.7</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="1">
         <v>86.1</v>
@@ -870,12 +873,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="1">
         <v>90.3</v>
@@ -884,15 +887,15 @@
         <v>90.6</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="B12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D12" s="1">
         <v>92.1</v>
@@ -904,12 +907,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C13" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D13" s="1">
         <v>81.7</v>
@@ -918,15 +921,15 @@
         <v>91.6</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="B14" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D14" s="1">
         <v>89.6</v>
@@ -935,15 +938,15 @@
         <v>92.5</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="B15" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D15" s="1">
         <v>61.1</v>
@@ -952,15 +955,15 @@
         <v>89.2</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C16" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D16" s="1">
         <v>88.4</v>
@@ -969,15 +972,15 @@
         <v>89.1</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="B17" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="1">
         <v>90.9</v>
@@ -989,29 +992,29 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="B18" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="1">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="E18" s="1">
         <v>88.8</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D19" s="1">
         <v>95.6</v>
@@ -1020,32 +1023,32 @@
         <v>96.2</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="B20" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D20" s="1">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="E20" s="1">
         <v>90.8</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="1">
         <v>94.1</v>
@@ -1054,26 +1057,25 @@
         <v>89.2</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1093,15 +1095,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="D2" s="1">
         <v>39.5</v>
@@ -1116,12 +1118,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="D3" s="1">
         <v>42.8</v>
@@ -1136,12 +1138,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D4" s="1">
         <v>95.7</v>
@@ -1150,18 +1152,18 @@
         <v>93.4</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="1">
         <v>90.8</v>
@@ -1170,24 +1172,24 @@
         <v>1.4</v>
       </c>
       <c r="F5" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D6" s="1">
         <v>36.5</v>
       </c>
       <c r="E6" s="1">
-        <v>35.799999999999997</v>
+        <v>35.8</v>
       </c>
       <c r="F6" s="1">
         <v>10.8</v>
@@ -1196,18 +1198,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="1">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="E7" s="1">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="F7" s="1">
         <v>8.9</v>
@@ -1216,12 +1218,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="1">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="D8" s="1">
         <v>42.9</v>
@@ -1236,18 +1238,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C9" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D9" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="E9" s="1">
-        <v>40.799999999999997</v>
+        <v>40.8</v>
       </c>
       <c r="F9" s="1">
         <v>3.3</v>
@@ -1256,12 +1258,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C10" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="D10" s="1">
         <v>75.8</v>
@@ -1270,18 +1272,18 @@
         <v>45.8</v>
       </c>
       <c r="F10" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="1">
         <v>95.2</v>
@@ -1296,12 +1298,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D12" s="1">
         <v>22.7</v>
@@ -1310,24 +1312,24 @@
         <v>34.4</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C13" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D13" s="1">
         <v>44.3</v>
       </c>
       <c r="E13" s="1">
-        <v>37.799999999999997</v>
+        <v>37.8</v>
       </c>
       <c r="F13" s="1">
         <v>2.6</v>
@@ -1336,18 +1338,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C14" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="D14" s="1">
         <v>53.1</v>
       </c>
       <c r="E14" s="1">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="F14" s="1">
         <v>22.9</v>
@@ -1356,32 +1358,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D15" s="1">
         <v>89.5</v>
       </c>
       <c r="E15" s="1">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D16" s="1">
         <v>89.1</v>
@@ -1390,38 +1392,38 @@
         <v>89.7</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="E17" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="B18" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="1">
         <v>87.8</v>
@@ -1436,32 +1438,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="B19" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D19" s="1">
         <v>75.3</v>
       </c>
       <c r="E19" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="B20" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D20" s="1">
         <v>93.7</v>
@@ -1476,45 +1478,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="B21" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="1">
-        <v>67.099999999999994</v>
+        <v>67.1</v>
       </c>
       <c r="E21" s="1">
         <v>93.6</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1546,7 +1545,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>18</v>
@@ -1555,10 +1554,10 @@
         <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1566,19 +1565,19 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1586,49 +1585,48 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="13.5"/>
+    <col customWidth="1" min="3" max="3" width="11.63"/>
+    <col customWidth="1" min="4" max="4" width="14.38"/>
+    <col customWidth="1" min="5" max="5" width="13.5"/>
+    <col customWidth="1" min="7" max="7" width="24.63"/>
+    <col customWidth="1" min="9" max="9" width="28.13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1642,43 +1640,43 @@
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1">
-        <v>56720</v>
+        <v>56720.0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1">
-        <v>18835</v>
+        <v>18835.0</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3">
         <f>J1*H9/H1</f>
-        <v>0.52563331276445702</v>
+        <v>0.5256333128</v>
       </c>
       <c r="C2" s="3">
         <f>L1/H2</f>
@@ -1686,44 +1684,44 @@
       </c>
       <c r="D2" s="3">
         <f>N1/H3</f>
-        <v>3.2822480874592874E-4</v>
+        <v>0.0003282248087</v>
       </c>
       <c r="E2" s="3">
         <f>P1/H4</f>
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1">
-        <v>89887</v>
+        <v>89887.0</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1">
-        <v>76209</v>
+        <v>76209.0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1733,99 +1731,99 @@
       </c>
       <c r="C3" s="3">
         <f>L2/H2</f>
-        <v>0.84783116579705631</v>
+        <v>0.8478311658</v>
       </c>
       <c r="D3" s="3">
         <f>N2/H3</f>
-        <v>4.4184108869644255E-4</v>
+        <v>0.0004418410887</v>
       </c>
       <c r="E3" s="3">
         <f>P2/H4</f>
         <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="1">
-        <v>79214</v>
+        <v>79214.0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J3" s="1">
-        <v>378</v>
+        <v>378.0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L3" s="1">
-        <v>4105</v>
+        <v>8599.0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3" s="1">
-        <v>71131</v>
+        <v>71131.0</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P3" s="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>173.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3">
         <f>J3/H1</f>
-        <v>6.664315937940762E-3</v>
+        <v>0.006664315938</v>
       </c>
       <c r="C4" s="3">
         <f>L3/H2</f>
-        <v>4.566845038770901E-2</v>
+        <v>0.09566455661</v>
       </c>
       <c r="D4" s="3">
         <f>N3/H3</f>
-        <v>0.89795995657333305</v>
+        <v>0.8979599566</v>
       </c>
       <c r="E4" s="3">
         <f>P3/H4</f>
-        <v>1.7552225480149753E-3</v>
+        <v>0.001755222548</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1">
-        <v>98563</v>
+        <v>98563.0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" s="1">
-        <v>308</v>
+        <v>135.0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P4" s="1">
-        <v>92898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>92164.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1839,60 +1837,59 @@
       </c>
       <c r="D5" s="3">
         <f>N4/H3</f>
-        <v>3.8882015805286945E-3</v>
+        <v>0.001704244199</v>
       </c>
       <c r="E5" s="3">
         <f>P4/H4</f>
-        <v>0.94252407089881596</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.9350770573</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="G6" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="G7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1">
         <v>1.5829</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="13.25"/>
+    <col customWidth="1" min="4" max="4" width="13.25"/>
+    <col customWidth="1" min="6" max="6" width="13.25"/>
+    <col customWidth="1" min="8" max="8" width="13.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1907,433 +1904,431 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1">
-        <v>106</v>
+        <v>106.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="1">
-        <v>251</v>
+        <v>251.0</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I2" s="1">
-        <v>3281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3281.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1">
-        <v>261</v>
+        <v>261.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" s="1">
-        <v>304</v>
+        <v>304.0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1">
-        <v>425</v>
+        <v>425.0</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" s="1">
-        <v>7413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7413.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1">
-        <v>415</v>
+        <v>415.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1">
-        <v>591</v>
+        <v>591.0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" s="1">
-        <v>693</v>
+        <v>693.0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1">
-        <v>14709</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>14709.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1">
-        <v>4839</v>
+        <v>4839.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="1">
-        <v>8681</v>
+        <v>8681.0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1">
-        <v>10178</v>
+        <v>10178.0</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I5" s="1">
-        <v>221068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>221068.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1">
-        <v>393</v>
+        <v>393.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="1">
-        <v>767</v>
+        <v>767.0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1">
-        <v>863</v>
+        <v>863.0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I6" s="1">
-        <v>18728</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18728.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="1">
-        <v>296</v>
+        <v>296.0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G7" s="1">
-        <v>427</v>
+        <v>427.0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" s="1">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8100.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="1">
-        <v>178</v>
+        <v>178.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1">
-        <v>339</v>
+        <v>339.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G8" s="1">
-        <v>459</v>
+        <v>459.0</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I8" s="1">
-        <v>8635</v>
+        <v>8635.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col customWidth="1" min="2" max="2" width="14.0"/>
+    <col customWidth="1" min="4" max="4" width="13.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>51.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1">
-        <v>156</v>
+        <v>156.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>148.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
-        <v>319</v>
+        <v>319.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>272.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1">
-        <v>4384</v>
+        <v>4384.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4297.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1">
-        <v>380</v>
+        <v>380.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>387.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>173.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="1">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1">
-        <v>40782</v>
+        <v>40782.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E10" s="1">
-        <v>41231</v>
+        <v>41231.0</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" ref="F10:F11" si="0">(C10-E10)/(C10+E10)</f>
-        <v>-5.4747418092253664E-3</v>
+        <f t="shared" ref="F10:F11" si="1">(C10-E10)/(C10+E10)</f>
+        <v>-0.005474741809</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="1">
+        <v>94381.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H10" s="1">
-        <v>94381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C11" s="1">
-        <v>37807</v>
+        <v>37807.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="1">
-        <v>38402</v>
+        <v>38402.0</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>-7.8074768072012492E-3</v>
+        <f t="shared" si="1"/>
+        <v>-0.007807476807</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1">
-        <v>76209</v>
+        <v>76209.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2353,15 +2348,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D2" s="1">
         <v>90.1</v>
@@ -2370,66 +2365,66 @@
         <v>1.6</v>
       </c>
       <c r="F2" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D3" s="1">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="E3" s="1">
         <v>1.6</v>
       </c>
       <c r="F3" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D4" s="1">
         <v>96.8</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="1">
         <v>89.1</v>
       </c>
       <c r="E5" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="F5" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D6" s="1">
         <v>90.25</v>
@@ -2441,12 +2436,12 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="1">
         <v>91.8</v>
@@ -2458,12 +2453,12 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D8" s="1">
         <v>86.3</v>
@@ -2475,12 +2470,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="1">
         <v>99.2</v>
@@ -2492,12 +2487,12 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="1">
         <v>88.2</v>
@@ -2506,15 +2501,15 @@
         <v>1.6</v>
       </c>
       <c r="F10" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="1">
         <v>90.9</v>
@@ -2526,12 +2521,12 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D12" s="1">
         <v>95.6</v>
@@ -2543,12 +2538,12 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D13" s="1">
         <v>75.3</v>
@@ -2560,12 +2555,12 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D14" s="1">
         <v>85.2</v>
@@ -2574,15 +2569,15 @@
         <v>5.8</v>
       </c>
       <c r="F14" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="B15" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D15" s="1">
         <v>98.6</v>
@@ -2594,12 +2589,12 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D16" s="1">
         <v>86.8</v>
@@ -2611,46 +2606,46 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="1">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="E17" s="1">
         <v>1.9</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="B18" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="1">
         <v>108.3</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="F18" s="1">
         <v>8.5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="B19" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D19" s="1">
         <v>92.4</v>
@@ -2662,15 +2657,15 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="B20" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D20" s="1">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="E20" s="1">
         <v>1.9</v>
@@ -2679,12 +2674,12 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="B21" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="1">
         <v>92.6</v>
@@ -2697,22 +2692,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2732,32 +2726,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D2" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="E2" s="1">
         <v>51.1</v>
       </c>
       <c r="F2" s="1">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D3" s="1">
         <v>46.5</v>
@@ -2766,15 +2760,15 @@
         <v>17.3</v>
       </c>
       <c r="F3" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D4" s="1">
         <v>30.8</v>
@@ -2786,29 +2780,29 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="1">
         <v>29.5</v>
       </c>
       <c r="E5" s="1">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F5" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.1</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D6" s="1">
         <v>33.1</v>
@@ -2820,12 +2814,12 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="1">
         <v>24.4</v>
@@ -2837,29 +2831,29 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="D8" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="E8" s="1">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="F8" s="1">
         <v>5.7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="1">
         <v>41.3</v>
@@ -2868,15 +2862,15 @@
         <v>11.1</v>
       </c>
       <c r="F9" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="1">
         <v>49.7</v>
@@ -2888,12 +2882,12 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="1">
         <v>33.4</v>
@@ -2905,12 +2899,12 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D12" s="1">
         <v>14.1</v>
@@ -2922,12 +2916,12 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D13" s="1">
         <v>19.7</v>
@@ -2939,12 +2933,12 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D14" s="1">
         <v>26.8</v>
@@ -2956,29 +2950,29 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D15" s="1">
         <v>23.4</v>
       </c>
       <c r="E15" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="F15" s="1">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17.1</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D16" s="1">
         <v>23.8</v>
@@ -2990,29 +2984,29 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="E17" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="F17" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="B18" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="1">
         <v>24.1</v>
@@ -3024,12 +3018,12 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="B19" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C19" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="D19" s="1">
         <v>38.5</v>
@@ -3038,32 +3032,32 @@
         <v>28.5</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="B20" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D20" s="1">
-        <v>35.299999999999997</v>
+        <v>35.3</v>
       </c>
       <c r="E20" s="1">
         <v>51.8</v>
       </c>
       <c r="F20" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="1">
         <v>17.8</v>
@@ -3072,26 +3066,25 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3111,35 +3104,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="D2" s="1">
-        <v>37.700000000000003</v>
+        <v>37.7</v>
       </c>
       <c r="E2" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="F2" s="1">
         <v>14.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="D3" s="1">
-        <v>39.200000000000003</v>
+        <v>39.2</v>
       </c>
       <c r="E3" s="1">
         <v>66.8</v>
@@ -3148,29 +3141,29 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="1">
-        <v>46</v>
+        <v>46.0</v>
       </c>
       <c r="D4" s="1">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="E4" s="1">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="F4" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="C5" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="D5" s="1">
         <v>45.3</v>
@@ -3182,12 +3175,12 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="C6" s="1">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="D6" s="1">
         <v>59.9</v>
@@ -3199,12 +3192,12 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="C7" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="D7" s="1">
         <v>21.9</v>
@@ -3213,15 +3206,15 @@
         <v>65.2</v>
       </c>
       <c r="F7" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="C8" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="D8" s="1">
         <v>55.9</v>
@@ -3233,12 +3226,12 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="C9" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="D9" s="1">
         <v>38.1</v>
@@ -3250,12 +3243,12 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="C10" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="D10" s="1">
         <v>34.4</v>
@@ -3267,12 +3260,12 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C11" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="D11" s="1">
         <v>51.2</v>
@@ -3284,32 +3277,32 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="C12" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="D12" s="1">
         <v>63.1</v>
       </c>
       <c r="E12" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="F12" s="1">
         <v>17.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="C13" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="D13" s="1">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="E13" s="1">
         <v>60.6</v>
@@ -3318,12 +3311,12 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="C14" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="D14" s="1">
         <v>62.2</v>
@@ -3332,15 +3325,15 @@
         <v>67.2</v>
       </c>
       <c r="F14" s="1">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="B15" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="C15" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="D15" s="1">
         <v>43.3</v>
@@ -3352,12 +3345,12 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="C16" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="D16" s="1">
         <v>47.8</v>
@@ -3369,15 +3362,15 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="C17" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="D17" s="1">
-        <v>67.900000000000006</v>
+        <v>67.9</v>
       </c>
       <c r="E17" s="1">
         <v>52.1</v>
@@ -3386,29 +3379,29 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="B18" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="C18" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="D18" s="1">
         <v>52.1</v>
       </c>
       <c r="E18" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="F18" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="C19" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="D19" s="1">
         <v>82.6</v>
@@ -3417,26 +3410,25 @@
         <v>53.8</v>
       </c>
       <c r="F19" s="1">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3453,357 +3445,356 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D2" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="E2" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E3" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E4" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E5" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E6" s="1">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E7" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="E8" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E9" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E10" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E11" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E12" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E13" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E14" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D15" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="E15" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E16" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E17" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E18" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="E19" s="1">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C20" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="C21" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3817,7 +3808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3828,27 +3819,27 @@
         <v>90.1</v>
       </c>
       <c r="D2" s="1">
-        <v>74</v>
+        <v>74.0</v>
       </c>
       <c r="E2" s="1">
-        <v>37.700000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.7</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="1">
         <v>91.9</v>
       </c>
       <c r="C3" s="1">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="D3" s="1">
         <v>46.5</v>
       </c>
       <c r="E3" s="1">
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="1">
         <v>82.5</v>
       </c>
@@ -3859,12 +3850,12 @@
         <v>30.8</v>
       </c>
       <c r="E4" s="1">
-        <v>64.599999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64.6</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="1">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="C5" s="1">
         <v>89.1</v>
@@ -3876,7 +3867,7 @@
         <v>45.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="1">
         <v>38.1</v>
       </c>
@@ -3890,7 +3881,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1">
         <v>83.8</v>
       </c>
@@ -3904,7 +3895,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1">
         <v>87.4</v>
       </c>
@@ -3912,13 +3903,13 @@
         <v>86.3</v>
       </c>
       <c r="D8" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="E8" s="1">
         <v>55.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="1">
         <v>69.3</v>
       </c>
@@ -3932,7 +3923,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="1">
         <v>86.1</v>
       </c>
@@ -3946,7 +3937,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="1">
         <v>90.3</v>
       </c>
@@ -3960,7 +3951,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="1">
         <v>92.1</v>
       </c>
@@ -3974,7 +3965,7 @@
         <v>63.1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1">
         <v>81.7</v>
       </c>
@@ -3985,10 +3976,10 @@
         <v>19.7</v>
       </c>
       <c r="E13" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="B14" s="1">
         <v>89.6</v>
       </c>
@@ -4002,7 +3993,7 @@
         <v>62.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="1">
         <v>61.1</v>
       </c>
@@ -4016,7 +4007,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" s="1">
         <v>88.4</v>
       </c>
@@ -4030,23 +4021,23 @@
         <v>47.8</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="1">
         <v>90.9</v>
       </c>
       <c r="C17" s="1">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="D17" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="E17" s="1">
-        <v>67.900000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>67.9</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="B18" s="1">
-        <v>64.599999999999994</v>
+        <v>64.6</v>
       </c>
       <c r="C18" s="1">
         <v>108.3</v>
@@ -4058,7 +4049,7 @@
         <v>52.1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="B19" s="1">
         <v>95.6</v>
       </c>
@@ -4072,18 +4063,18 @@
         <v>82.6</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="B20" s="1">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="C20" s="1">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="D20" s="1">
-        <v>35.299999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="1">
         <v>94.1</v>
       </c>
@@ -4095,22 +4086,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4124,7 +4114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4138,12 +4128,12 @@
         <v>51.1</v>
       </c>
       <c r="E2" s="1">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="C3" s="1">
         <v>1.6</v>
@@ -4155,35 +4145,35 @@
         <v>66.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" s="1">
         <v>92.3</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D4" s="1">
         <v>1.6</v>
       </c>
       <c r="E4" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="1">
         <v>86.8</v>
       </c>
       <c r="C5" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D5" s="1">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="E5" s="1">
         <v>53.2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="1">
         <v>89.5</v>
       </c>
@@ -4197,7 +4187,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1">
         <v>87.5</v>
       </c>
@@ -4211,7 +4201,7 @@
         <v>65.2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="1">
         <v>93.2</v>
       </c>
@@ -4219,13 +4209,13 @@
         <v>3.7</v>
       </c>
       <c r="D8" s="1">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="E8" s="1">
         <v>50.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="1">
         <v>90.7</v>
       </c>
@@ -4239,7 +4229,7 @@
         <v>68.3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="1">
         <v>89.4</v>
       </c>
@@ -4253,7 +4243,7 @@
         <v>75.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="1">
         <v>90.6</v>
       </c>
@@ -4267,7 +4257,7 @@
         <v>62.3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="1">
         <v>88.5</v>
       </c>
@@ -4278,10 +4268,10 @@
         <v>3.3</v>
       </c>
       <c r="E12" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" s="1">
         <v>91.6</v>
       </c>
@@ -4295,7 +4285,7 @@
         <v>60.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="1">
         <v>92.5</v>
       </c>
@@ -4309,7 +4299,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="1">
         <v>89.2</v>
       </c>
@@ -4317,13 +4307,13 @@
         <v>3.6</v>
       </c>
       <c r="D15" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="E15" s="1">
         <v>71.7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" s="1">
         <v>89.1</v>
       </c>
@@ -4337,7 +4327,7 @@
         <v>61.4</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="1">
         <v>90.5</v>
       </c>
@@ -4345,27 +4335,27 @@
         <v>1.9</v>
       </c>
       <c r="D17" s="1">
-        <v>18.899999999999999</v>
+        <v>18.9</v>
       </c>
       <c r="E17" s="1">
         <v>52.1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="B18" s="1">
         <v>88.8</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D18" s="1">
         <v>46.5</v>
       </c>
       <c r="E18" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>61.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="1">
         <v>96.2</v>
       </c>
@@ -4379,7 +4369,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="B20" s="1">
         <v>90.8</v>
       </c>
@@ -4390,7 +4380,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="B21" s="1">
         <v>89.2</v>
       </c>
@@ -4402,22 +4392,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -4431,68 +4420,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C2" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="D2" s="1">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="E2" s="1">
         <v>14.1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C3" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.7</v>
       </c>
       <c r="D3" s="1">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="E3" s="1">
         <v>9.9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" s="1">
         <v>6.3</v>
       </c>
       <c r="E4" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="1">
         <v>8.5</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="E5" s="1">
         <v>7.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="B6" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="1">
         <v>7.2</v>
@@ -4504,9 +4493,9 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C7" s="1">
         <v>4.3</v>
@@ -4515,12 +4504,12 @@
         <v>11.7</v>
       </c>
       <c r="E7" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" s="1">
         <v>3.3</v>
@@ -4532,26 +4521,26 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C9" s="1">
         <v>2.9</v>
       </c>
       <c r="D9" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="E9" s="1">
         <v>13.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="B10" s="1">
         <v>0.5</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="D10" s="1">
         <v>20.3</v>
@@ -4560,9 +4549,9 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C11" s="1">
         <v>6.7</v>
@@ -4574,7 +4563,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="1">
         <v>0.5</v>
       </c>
@@ -4588,9 +4577,9 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C13" s="1">
         <v>6.8</v>
@@ -4602,37 +4591,37 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="B14" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C14" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="D14" s="1">
         <v>3.4</v>
       </c>
       <c r="E14" s="1">
-        <v>20.399999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="B15" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C15" s="1">
         <v>5.7</v>
       </c>
       <c r="D15" s="1">
-        <v>17.100000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="E15" s="1">
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="B16" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C16" s="1">
         <v>7.9</v>
@@ -4644,23 +4633,23 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="1">
         <v>0.3</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="D17" s="1">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="E17" s="1">
         <v>10.6</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="B18" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C18" s="1">
         <v>8.5</v>
@@ -4669,62 +4658,61 @@
         <v>7.3</v>
       </c>
       <c r="E18" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C19" s="1">
         <v>6.7</v>
       </c>
       <c r="D19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E19" s="1">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="B20" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C20" s="1">
         <v>22.6</v>
       </c>
       <c r="D20" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C21" s="1">
         <v>5.7</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -4741,7 +4729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4756,7 +4744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -4770,7 +4758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -4784,7 +4772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -4795,7 +4783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4812,7 +4800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4829,7 +4817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -4846,7 +4834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -4864,6 +4852,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>